--- a/Content/Translation/Home.xlsx
+++ b/Content/Translation/Home.xlsx
@@ -403,7 +403,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Content/Translation/Home.xlsx
+++ b/Content/Translation/Home.xlsx
@@ -48,37 +48,37 @@
     <t>Тестовое приложение для проверки смены языка</t>
   </si>
   <si>
+    <t>Aplicación de prueba de cambio de idioma</t>
+  </si>
+  <si>
+    <t>Application de test de changement de langue</t>
+  </si>
+  <si>
+    <t>Какой-то важный текст на каком-то языке</t>
+  </si>
+  <si>
+    <t>Some important text in some language</t>
+  </si>
+  <si>
+    <t>Algún texto importante en algún idioma</t>
+  </si>
+  <si>
+    <t>Un texte important dans une langue</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
     <t>Test application for changing the language</t>
-  </si>
-  <si>
-    <t>Aplicación de prueba de cambio de idioma</t>
-  </si>
-  <si>
-    <t>Application de test de changement de langue</t>
-  </si>
-  <si>
-    <t>Какой-то важный текст на каком-то языке</t>
-  </si>
-  <si>
-    <t>Some important text in some language</t>
-  </si>
-  <si>
-    <t>Algún texto importante en algún idioma</t>
-  </si>
-  <si>
-    <t>Un texte important dans une langue</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>es</t>
-  </si>
-  <si>
-    <t>fr</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,16 +417,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -462,27 +462,27 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
